--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\NC\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08707333-417E-40AF-9A6D-310BB345C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7C19D1-CBF9-433F-A513-08C4242C9411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="210" windowWidth="16800" windowHeight="16425" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6750,7 +6750,7 @@
         <v>987</v>
       </c>
       <c r="C1" s="48">
-        <v>44901</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
@@ -10845,97 +10845,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AF4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -17771,7 +17771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -26010,7 +26010,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -30589,7 +30589,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -31752,7 +31752,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -55776,10 +55776,10 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -55994,16 +55994,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
